--- a/Configs/GameConfig/Datas/__beans__.xlsx
+++ b/Configs/GameConfig/Datas/__beans__.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15380"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -93,117 +93,6 @@
   </si>
   <si>
     <t>字段变体</t>
-  </si>
-  <si>
-    <t>item.ItemExchange</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>道具id</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t>道具数量</t>
-  </si>
-  <si>
-    <t>test.TestExcelBean1</t>
-  </si>
-  <si>
-    <t>这是个测试excel结构</t>
-  </si>
-  <si>
-    <t>x1</t>
-  </si>
-  <si>
-    <t>最高品质</t>
-  </si>
-  <si>
-    <t>x2</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>黑色的</t>
-  </si>
-  <si>
-    <t>x3</t>
-  </si>
-  <si>
-    <t>蓝色的</t>
-  </si>
-  <si>
-    <t>x4</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>最差品质</t>
-  </si>
-  <si>
-    <t>test.TestExcelBean2</t>
-  </si>
-  <si>
-    <t>y1</t>
-  </si>
-  <si>
-    <t>y2</t>
-  </si>
-  <si>
-    <t>y3</t>
-  </si>
-  <si>
-    <t>test.Shape</t>
-  </si>
-  <si>
-    <t>test.Circle</t>
-  </si>
-  <si>
-    <t>Shape</t>
-  </si>
-  <si>
-    <t>圆</t>
-  </si>
-  <si>
-    <t>这是一个圆</t>
-  </si>
-  <si>
-    <t>radius</t>
-  </si>
-  <si>
-    <t>半径</t>
-  </si>
-  <si>
-    <t>test.Rectangle</t>
-  </si>
-  <si>
-    <t>矩形</t>
-  </si>
-  <si>
-    <t>这是一个矩形</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>宽度</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>高度</t>
   </si>
 </sst>
 </file>
@@ -1157,16 +1046,16 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="12" width="13.5089285714286" customWidth="1"/>
-    <col min="13" max="13" width="10.3839285714286" customWidth="1"/>
+    <col min="10" max="12" width="13.5083333333333" customWidth="1"/>
+    <col min="13" max="13" width="10.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1263,129 +1152,25 @@
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="L4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="10:14">
-      <c r="J5" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="L5" s="2"/>
+      <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="10:14">
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="10:14">
-      <c r="J8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="10:14">
-      <c r="J9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="10:14">
-      <c r="J11" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" t="s">
-        <v>34</v>
-      </c>
-      <c r="N11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="10:14">
-      <c r="J12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" t="s">
-        <v>37</v>
-      </c>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1400,62 +1185,34 @@
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="N14" s="3"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="N15" s="3"/>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="3"/>
@@ -1466,17 +1223,11 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="N16" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
